--- a/data/trans_dic/P1414-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1414-Provincia-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.006903860049922</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.002094137476345281</v>
+        <v>0.002094137476345282</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.02861518218033312</v>
@@ -684,22 +684,22 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0139986749313083</v>
+        <v>0.01421387365616215</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02141415768271321</v>
+        <v>0.02327290034122812</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02796592390497684</v>
+        <v>0.02660063400779879</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.008407891319690408</v>
+        <v>0.008480371365786357</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01348208360129597</v>
+        <v>0.01305407301182767</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01408705948283332</v>
+        <v>0.01445763526152533</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01649887284086985</v>
+        <v>0.01663840469901468</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02404614196630633</v>
+        <v>0.02439339994814353</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01051728207947273</v>
+        <v>0.01203559119862415</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0539012670121048</v>
+        <v>0.05348011490167395</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06744918736506046</v>
+        <v>0.06893911011806605</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05985042309766984</v>
+        <v>0.0587629896145006</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02910278900251541</v>
+        <v>0.03119950383337513</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03967554797358761</v>
+        <v>0.03864530829962863</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03087874559611098</v>
+        <v>0.03119096768366054</v>
       </c>
     </row>
     <row r="7">
@@ -791,22 +791,22 @@
       </c>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
-        <v>0.01371161785447507</v>
+        <v>0.01220202326137905</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01584009332530301</v>
+        <v>0.01655289578359648</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02511568709280069</v>
+        <v>0.02489089871849246</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.007185946212166751</v>
+        <v>0.007311968076227617</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.008720865806554097</v>
+        <v>0.00847831617382486</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01286047728134566</v>
+        <v>0.01297438867754343</v>
       </c>
     </row>
     <row r="9">
@@ -817,29 +817,29 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.009552018962163907</v>
+        <v>0.01179676272091305</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01295142214222763</v>
+        <v>0.0115990369159339</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.04242713981351893</v>
+        <v>0.04125284509986284</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04547349808920365</v>
+        <v>0.04602036106785072</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05168325373653002</v>
+        <v>0.05197812638011618</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02273411689984352</v>
+        <v>0.02274409168215582</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02551271624558012</v>
+        <v>0.02534417276284169</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02545873559700007</v>
+        <v>0.02648280956169762</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>0.01423504396528848</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.01499483110639917</v>
+        <v>0.01499483110639916</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.007456587138801245</v>
@@ -878,7 +878,7 @@
         <v>0.007310373342462975</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.009239141053255495</v>
+        <v>0.009239141053255493</v>
       </c>
     </row>
     <row r="11">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.005746438681702212</v>
+        <v>0.005743380304970892</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.005006863380945432</v>
+        <v>0.004991082612245595</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.006969400840300627</v>
+        <v>0.006775300242625597</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.002925507522547434</v>
+        <v>0.002927054444705538</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.002778968618729172</v>
+        <v>0.002593377495079244</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.00488350149000515</v>
+        <v>0.004885645365475613</v>
       </c>
     </row>
     <row r="12">
@@ -922,25 +922,25 @@
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.01152091192974734</v>
+        <v>0.01133415987237819</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03467650423554879</v>
+        <v>0.03229144635101436</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03249074805197694</v>
+        <v>0.03258289816006675</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02742262491355831</v>
+        <v>0.02892175652813812</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.0163825111854406</v>
+        <v>0.01841419447982163</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01546489113776816</v>
+        <v>0.01542695384714472</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01668398036160602</v>
+        <v>0.01771545278145498</v>
       </c>
     </row>
     <row r="13">
@@ -979,7 +979,7 @@
         <v>0.01293462304431772</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.01631998557875403</v>
+        <v>0.01631998557875402</v>
       </c>
     </row>
     <row r="14">
@@ -996,25 +996,25 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.001569542343235428</v>
+        <v>0.001624830526174133</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01501902657182038</v>
+        <v>0.01505464624075024</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01077459216072774</v>
+        <v>0.01069266849948015</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01304055382152858</v>
+        <v>0.01250066426299788</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.008941556335118067</v>
+        <v>0.00899436735142335</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.006356726847732261</v>
+        <v>0.006734495011860588</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0100946512940221</v>
+        <v>0.01020842352328393</v>
       </c>
     </row>
     <row r="15">
@@ -1025,31 +1025,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0155377467150436</v>
+        <v>0.0174533058938154</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01535219157500079</v>
+        <v>0.01315435363480433</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03211086856377651</v>
+        <v>0.03961386087017317</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04883328680133893</v>
+        <v>0.04667466724920781</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04243122895382658</v>
+        <v>0.04362262794362193</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03513534363381794</v>
+        <v>0.03482551528502256</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02609267654076968</v>
+        <v>0.02701119991974566</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02390822791483961</v>
+        <v>0.02425487253391866</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02772773926765506</v>
+        <v>0.02752209233709309</v>
       </c>
     </row>
     <row r="16">
@@ -1079,7 +1079,7 @@
         <v>0.06127795886407011</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.05283131723134432</v>
+        <v>0.05283131723134433</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.01557220187453829</v>
@@ -1106,22 +1106,22 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01340094945783949</v>
+        <v>0.01282607417204906</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03281270182862341</v>
+        <v>0.03406421298402811</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03661084453643704</v>
+        <v>0.03698704829725847</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.006904565627520023</v>
+        <v>0.004887520644274567</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02084828981548577</v>
+        <v>0.02087085088853428</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02020710782655169</v>
+        <v>0.01950802837627913</v>
       </c>
     </row>
     <row r="18">
@@ -1133,28 +1133,28 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.03225814978615116</v>
+        <v>0.03182582547394371</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01482463821611073</v>
+        <v>0.01420419058295531</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06816442672601286</v>
+        <v>0.06169361084859601</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.09844982507135908</v>
+        <v>0.1025179911192087</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.07411408499145229</v>
+        <v>0.07528924905255595</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03771891997042914</v>
+        <v>0.0325789359241846</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05701487552643771</v>
+        <v>0.05747228227458841</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04027741350810523</v>
+        <v>0.04069998106867233</v>
       </c>
     </row>
     <row r="19">
@@ -1206,25 +1206,25 @@
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="n">
-        <v>0.001697703203423799</v>
+        <v>0.001641799158518929</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.003543394328141192</v>
+        <v>0.003561377337630915</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01110369935634154</v>
+        <v>0.01113462917224692</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.01975657742051163</v>
+        <v>0.02111129532662461</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.00181015824094224</v>
+        <v>0.001791032363261969</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.003940710858913238</v>
+        <v>0.005027245225826667</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01216633307439932</v>
+        <v>0.01266147598750412</v>
       </c>
     </row>
     <row r="21">
@@ -1237,25 +1237,25 @@
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.01990009280536056</v>
+        <v>0.01888774447901101</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.02890315407254844</v>
+        <v>0.02895615563625296</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.04738262255242542</v>
+        <v>0.04765496640476478</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.05258169464772506</v>
+        <v>0.05442735608656715</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.01643827681954718</v>
+        <v>0.01462717119741972</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.02383120565103003</v>
+        <v>0.02389703988745234</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.02907076566381302</v>
+        <v>0.03022698534672374</v>
       </c>
     </row>
     <row r="22">
@@ -1276,7 +1276,7 @@
         <v>0.00181831179134014</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.007127701836346589</v>
+        <v>0.007127701836346588</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.01437896111953926</v>
@@ -1285,7 +1285,7 @@
         <v>0.01765680812670001</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.04694650382090301</v>
+        <v>0.046946503820903</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.008889479353631961</v>
@@ -1294,7 +1294,7 @@
         <v>0.009941649897506689</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.02771166355271221</v>
+        <v>0.0277116635527122</v>
       </c>
     </row>
     <row r="23">
@@ -1311,25 +1311,25 @@
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.002672009663798339</v>
+        <v>0.002473622243822454</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.006940093280256409</v>
+        <v>0.007197759618878558</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.009443476558229082</v>
+        <v>0.009383367623113634</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.0354442772033819</v>
+        <v>0.03512127333873636</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.004571888079798768</v>
+        <v>0.004531659108997169</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.005629694451053519</v>
+        <v>0.005534752541657972</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02113329330944502</v>
+        <v>0.02133131691127938</v>
       </c>
     </row>
     <row r="24">
@@ -1340,31 +1340,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.009633098290025864</v>
+        <v>0.009548345023415785</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.009113190833415791</v>
+        <v>0.00910310648246606</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01614374242757667</v>
+        <v>0.01591664096209966</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.02724267448261305</v>
+        <v>0.02797788596718936</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03057866993755334</v>
+        <v>0.029527094875708</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.06008474620251754</v>
+        <v>0.0612387624721053</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.01579109072137626</v>
+        <v>0.01502756413615296</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.01737318242844757</v>
+        <v>0.01605210812483241</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.03622525674068222</v>
+        <v>0.03556071732510681</v>
       </c>
     </row>
     <row r="25">
@@ -1403,7 +1403,7 @@
         <v>0.03688929511963457</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0.03262095153778589</v>
+        <v>0.0326209515377859</v>
       </c>
     </row>
     <row r="26">
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.002763711127961631</v>
+        <v>0.003387424795044951</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.03058847405006327</v>
+        <v>0.03229418959051185</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.04822062139747487</v>
+        <v>0.04659910603009978</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.04836448508831077</v>
+        <v>0.04824926562511135</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01731067232880099</v>
+        <v>0.01646486993931017</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.0277921531964073</v>
+        <v>0.02790051382377061</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.0258682775821074</v>
+        <v>0.02597020403579189</v>
       </c>
     </row>
     <row r="27">
@@ -1449,31 +1449,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.009770703892949758</v>
+        <v>0.009097012633623183</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01737697580600029</v>
+        <v>0.01857795229661727</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.009292996079556585</v>
+        <v>0.01007184852153934</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.06001604153912531</v>
+        <v>0.06271520267440792</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.08309215527873715</v>
+        <v>0.0823617615683488</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.07649066067312113</v>
+        <v>0.07786054874934827</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.03288429286053888</v>
+        <v>0.03181755364798702</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.04815267302276533</v>
+        <v>0.04710139853743835</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.04047220572900438</v>
+        <v>0.04098205813963098</v>
       </c>
     </row>
     <row r="28">
@@ -1494,7 +1494,7 @@
         <v>0.004138586461645745</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.004188988346218044</v>
+        <v>0.004188988346218045</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0.02610782992261705</v>
@@ -1523,31 +1523,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.0009179831695049705</v>
+        <v>0.0009172648221282471</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.00237301787293677</v>
+        <v>0.002402462093083077</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.0024497651310508</v>
+        <v>0.002240306028318301</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.02086508708477759</v>
+        <v>0.02064985319876697</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.02934984007914337</v>
+        <v>0.02944684492822989</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.03690687715610168</v>
+        <v>0.03702557464572784</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.01156168232511557</v>
+        <v>0.01146217686593146</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.01671081536291657</v>
+        <v>0.01701826085527816</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.02065809261121276</v>
+        <v>0.02076133452034648</v>
       </c>
     </row>
     <row r="30">
@@ -1558,31 +1558,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.00433333070919853</v>
+        <v>0.004487461141664699</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.007190930876288585</v>
+        <v>0.00731319194410314</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.007208260936682797</v>
+        <v>0.006987857390882377</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.03166870819318109</v>
+        <v>0.03211161865515254</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.04154414927234137</v>
+        <v>0.04231941153435369</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.04710526989040408</v>
+        <v>0.04729783000905444</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.01755341501983893</v>
+        <v>0.01742135899156947</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.0236901268061255</v>
+        <v>0.02379546228855667</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.02668600576319236</v>
+        <v>0.02633293895339732</v>
       </c>
     </row>
     <row r="31">
@@ -1824,22 +1824,22 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4021</v>
+        <v>4083</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6182</v>
+        <v>6719</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>8839</v>
+        <v>8407</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4893</v>
+        <v>4935</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>7853</v>
+        <v>7604</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>8944</v>
+        <v>9179</v>
       </c>
     </row>
     <row r="7">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4863</v>
+        <v>4904</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>7064</v>
+        <v>7166</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>3353</v>
+        <v>3837</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>15483</v>
+        <v>15362</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>19473</v>
+        <v>19903</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>18916</v>
+        <v>18573</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>16937</v>
+        <v>18158</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>23110</v>
+        <v>22510</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>19605</v>
+        <v>19803</v>
       </c>
     </row>
     <row r="8">
@@ -1966,22 +1966,22 @@
       </c>
       <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="n">
-        <v>7182</v>
+        <v>6391</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>8286</v>
+        <v>8659</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>13594</v>
+        <v>13473</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>7396</v>
+        <v>7526</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>8945</v>
+        <v>8696</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>13773</v>
+        <v>13895</v>
       </c>
     </row>
     <row r="11">
@@ -1992,29 +1992,29 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>4829</v>
+        <v>5964</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>6509</v>
+        <v>5829</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>22222</v>
+        <v>21607</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>23786</v>
+        <v>24073</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>27975</v>
+        <v>28134</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>23400</v>
+        <v>23410</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>26167</v>
+        <v>25994</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>27265</v>
+        <v>28361</v>
       </c>
     </row>
     <row r="12">
@@ -2104,22 +2104,22 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1684</v>
+        <v>1679</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2484</v>
+        <v>2415</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1820</v>
+        <v>1698</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>3284</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="15">
@@ -2132,25 +2132,25 @@
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>3641</v>
+        <v>3582</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>11825</v>
+        <v>11012</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>10927</v>
+        <v>10958</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>9773</v>
+        <v>10307</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>10895</v>
+        <v>12247</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>10128</v>
+        <v>10103</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>11218</v>
+        <v>11911</v>
       </c>
     </row>
     <row r="16">
@@ -2241,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>5842</v>
+        <v>5856</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4173</v>
+        <v>4141</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5503</v>
+        <v>5275</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>6822</v>
+        <v>6862</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>4814</v>
+        <v>5100</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>8020</v>
+        <v>8111</v>
       </c>
     </row>
     <row r="19">
@@ -2270,31 +2270,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>5811</v>
+        <v>6527</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>5680</v>
+        <v>4867</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>11963</v>
+        <v>14758</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>18994</v>
+        <v>18154</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>16433</v>
+        <v>16894</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>14826</v>
+        <v>14695</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>19907</v>
+        <v>20608</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>18104</v>
+        <v>18367</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>22030</v>
+        <v>21867</v>
       </c>
     </row>
     <row r="20">
@@ -2386,22 +2386,22 @@
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2943</v>
+        <v>2816</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>7172</v>
+        <v>7446</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>8267</v>
+        <v>8352</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2984</v>
+        <v>2112</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>8961</v>
+        <v>8970</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>8707</v>
+        <v>8406</v>
       </c>
     </row>
     <row r="23">
@@ -2413,28 +2413,28 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>6814</v>
+        <v>6722</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>3040</v>
+        <v>2913</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>14968</v>
+        <v>13547</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>21520</v>
+        <v>22409</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>16736</v>
+        <v>17002</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>16302</v>
+        <v>14081</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>24505</v>
+        <v>24702</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>17356</v>
+        <v>17538</v>
       </c>
     </row>
     <row r="24">
@@ -2521,25 +2521,25 @@
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>985</v>
+        <v>990</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>3033</v>
+        <v>3041</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>5186</v>
+        <v>5542</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>2113</v>
+        <v>2696</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>6487</v>
+        <v>6751</v>
       </c>
     </row>
     <row r="27">
@@ -2552,25 +2552,25 @@
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>5387</v>
+        <v>5113</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>8038</v>
+        <v>8053</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>12941</v>
+        <v>13015</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>13804</v>
+        <v>14288</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>9075</v>
+        <v>8075</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>12779</v>
+        <v>12815</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>15501</v>
+        <v>16118</v>
       </c>
     </row>
     <row r="28">
@@ -2661,25 +2661,25 @@
         <v>0</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1909</v>
+        <v>1767</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>4815</v>
+        <v>4994</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>6528</v>
+        <v>6487</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>27095</v>
+        <v>26848</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>6202</v>
+        <v>6148</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>7588</v>
+        <v>7460</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>31251</v>
+        <v>31544</v>
       </c>
     </row>
     <row r="31">
@@ -2690,31 +2690,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>6385</v>
+        <v>6329</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>5983</v>
+        <v>5977</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>11532</v>
+        <v>11370</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>18902</v>
+        <v>19413</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>21139</v>
+        <v>20412</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>45930</v>
+        <v>46813</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>21423</v>
+        <v>20387</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>23416</v>
+        <v>21636</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>53568</v>
+        <v>52585</v>
       </c>
     </row>
     <row r="32">
@@ -2802,28 +2802,28 @@
         <v>0</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2152</v>
+        <v>2637</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>25132</v>
+        <v>26533</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>39838</v>
+        <v>38499</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>40037</v>
+        <v>39942</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>27709</v>
+        <v>26355</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>44599</v>
+        <v>44773</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>42059</v>
+        <v>42225</v>
       </c>
     </row>
     <row r="35">
@@ -2834,31 +2834,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>7612</v>
+        <v>7087</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>13529</v>
+        <v>14464</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>7416</v>
+        <v>8038</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>49310</v>
+        <v>51528</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>68648</v>
+        <v>68045</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>63320</v>
+        <v>64455</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>52638</v>
+        <v>50931</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>77273</v>
+        <v>75586</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>65803</v>
+        <v>66632</v>
       </c>
     </row>
     <row r="36">
@@ -2943,31 +2943,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>8055</v>
+        <v>8155</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>8636</v>
+        <v>7898</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>74157</v>
+        <v>73392</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>104032</v>
+        <v>104376</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>137156</v>
+        <v>137597</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>80711</v>
+        <v>80016</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>115955</v>
+        <v>118088</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>149596</v>
+        <v>150343</v>
       </c>
     </row>
     <row r="39">
@@ -2978,31 +2978,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>14849</v>
+        <v>15378</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>24409</v>
+        <v>24824</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>25411</v>
+        <v>24634</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>112555</v>
+        <v>114129</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>147255</v>
+        <v>150003</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>175055</v>
+        <v>175771</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>122539</v>
+        <v>121617</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>164383</v>
+        <v>165114</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>193247</v>
+        <v>190690</v>
       </c>
     </row>
     <row r="40">
